--- a/wash_P/CIV.xlsx
+++ b/wash_P/CIV.xlsx
@@ -49653,7 +49653,7 @@
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -49968,7 +49968,7 @@
         <v>0</v>
       </c>
       <c r="FW16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX16" t="n">
         <v>0</v>
